--- a/srcript/reg_tab/csr_excel/register/asic/hirar_llp_csr.xlsx
+++ b/srcript/reg_tab/csr_excel/register/asic/hirar_llp_csr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="0" windowWidth="21720" windowHeight="13620"/>
@@ -3275,10 +3275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P0_LLP_PCS_ADDR_PREFIX,P1_LLP_PCS_ADDR_PREFIX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>64'h100000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3517,13 +3513,17 @@
   </si>
   <si>
     <t>物理链路状态.9：物理链路检测成功.其他值：物理链路检测未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIRAR_P0_LLP_PCS_ADDR_PREFIX,HIRAR_P1_LLP_PCS_ADDR_PREFIX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -4176,53 +4176,53 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -4334,7 +4334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4408,7 +4408,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4443,7 +4442,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4619,11 +4617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4644,7 +4642,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
@@ -4684,7 +4682,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>61</v>
@@ -4692,7 +4690,7 @@
       <c r="F4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="28" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -4712,7 +4710,7 @@
       <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="16" t="s">
         <v>119</v>
       </c>
@@ -4730,7 +4728,7 @@
       <c r="F6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="17" t="s">
         <v>120</v>
       </c>
@@ -4746,9 +4744,9 @@
         <v>58</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="G7" s="27"/>
+        <v>448</v>
+      </c>
+      <c r="G7" s="29"/>
       <c r="H7" s="14" t="s">
         <v>121</v>
       </c>
@@ -4766,7 +4764,7 @@
       <c r="F8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="17" t="s">
         <v>122</v>
       </c>
@@ -4784,7 +4782,7 @@
       <c r="F9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="14" t="s">
         <v>123</v>
       </c>
@@ -4800,9 +4798,9 @@
         <v>55</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G10" s="27"/>
+        <v>449</v>
+      </c>
+      <c r="G10" s="29"/>
       <c r="H10" s="14" t="s">
         <v>124</v>
       </c>
@@ -4820,7 +4818,7 @@
       <c r="F11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="8" t="s">
         <v>125</v>
       </c>
@@ -4836,11 +4834,11 @@
         <v>50</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="8" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4856,7 +4854,7 @@
       <c r="F13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="16" t="s">
         <v>126</v>
       </c>
@@ -4874,7 +4872,7 @@
       <c r="F14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="14" t="s">
         <v>127</v>
       </c>
@@ -4892,7 +4890,7 @@
       <c r="F15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="8" t="s">
         <v>128</v>
       </c>
@@ -4914,7 +4912,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>100</v>
@@ -4924,13 +4922,13 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="28" t="s">
         <v>89</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -4942,7 +4940,7 @@
       <c r="F17" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="28" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -4950,9 +4948,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="4" t="s">
         <v>84</v>
       </c>
@@ -4962,15 +4960,15 @@
       <c r="F18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="4" t="s">
         <v>85</v>
       </c>
@@ -4980,15 +4978,15 @@
       <c r="F19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="27"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="4" t="s">
         <v>86</v>
       </c>
@@ -4998,15 +4996,15 @@
       <c r="F20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="4" t="s">
         <v>87</v>
       </c>
@@ -5016,15 +5014,15 @@
       <c r="F21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="25.5">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="4" t="s">
         <v>88</v>
       </c>
@@ -5034,19 +5032,19 @@
       <c r="F22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="18" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -5058,7 +5056,7 @@
       <c r="F23" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="27" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -5066,9 +5064,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="29"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="29"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="4" t="s">
         <v>134</v>
       </c>
@@ -5078,15 +5076,15 @@
       <c r="F24" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="29"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="29"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="4" t="s">
         <v>136</v>
       </c>
@@ -5096,15 +5094,15 @@
       <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="29"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="14" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="29"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="29"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="4" t="s">
         <v>137</v>
       </c>
@@ -5112,17 +5110,17 @@
         <v>165</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="G26" s="29"/>
+        <v>450</v>
+      </c>
+      <c r="G26" s="25"/>
       <c r="H26" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="29"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="29"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="4" t="s">
         <v>140</v>
       </c>
@@ -5132,15 +5130,15 @@
       <c r="F27" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="29"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="29"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="4" t="s">
         <v>142</v>
       </c>
@@ -5150,15 +5148,15 @@
       <c r="F28" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="29"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="29"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="4" t="s">
         <v>144</v>
       </c>
@@ -5168,15 +5166,15 @@
       <c r="F29" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="30"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="30"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="4" t="s">
         <v>146</v>
       </c>
@@ -5186,19 +5184,19 @@
       <c r="F30" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -5210,7 +5208,7 @@
       <c r="F31" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="28" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="16" t="s">
@@ -5218,9 +5216,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="26"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="26"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="4" t="s">
         <v>150</v>
       </c>
@@ -5230,19 +5228,19 @@
       <c r="F32" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -5254,7 +5252,7 @@
       <c r="F33" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="28" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="8" t="s">
@@ -5262,9 +5260,9 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="27"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="27"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="4" t="s">
         <v>152</v>
       </c>
@@ -5274,15 +5272,15 @@
       <c r="F34" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="26"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="26"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="4" t="s">
         <v>154</v>
       </c>
@@ -5292,19 +5290,19 @@
       <c r="F35" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="26"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="15" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="28" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="22" t="s">
@@ -5316,7 +5314,7 @@
       <c r="F36" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="28" t="s">
         <v>9</v>
       </c>
       <c r="H36" s="8" t="s">
@@ -5324,9 +5322,9 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="27"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="27"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="4" t="s">
         <v>103</v>
       </c>
@@ -5336,15 +5334,15 @@
       <c r="F37" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="G37" s="27"/>
+      <c r="G37" s="29"/>
       <c r="H37" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="27"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="27"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="4" t="s">
         <v>104</v>
       </c>
@@ -5354,15 +5352,15 @@
       <c r="F38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="27"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="27"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="27"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="4" t="s">
         <v>105</v>
       </c>
@@ -5372,15 +5370,15 @@
       <c r="F39" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="27"/>
+      <c r="G39" s="29"/>
       <c r="H39" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="26"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="26"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="4" t="s">
         <v>106</v>
       </c>
@@ -5390,19 +5388,19 @@
       <c r="F40" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="26"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -5414,17 +5412,17 @@
       <c r="F41" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="28" t="s">
         <v>101</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="80.25">
-      <c r="A42" s="27"/>
+    <row r="42" spans="1:8">
+      <c r="A42" s="29"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="27"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="4" t="s">
         <v>99</v>
       </c>
@@ -5434,15 +5432,15 @@
       <c r="F42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="27"/>
+      <c r="G42" s="29"/>
       <c r="H42" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="26"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="26"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="4" t="s">
         <v>446</v>
       </c>
@@ -5452,19 +5450,19 @@
       <c r="F43" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="26"/>
+      <c r="G43" s="32"/>
       <c r="H43" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="28" t="s">
         <v>174</v>
       </c>
       <c r="D44" s="22" t="s">
@@ -5476,7 +5474,7 @@
       <c r="F44" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="28" t="s">
         <v>180</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -5484,9 +5482,9 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="27"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="27"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="4" t="s">
         <v>197</v>
       </c>
@@ -5494,17 +5492,17 @@
         <v>185</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G45" s="27"/>
+        <v>456</v>
+      </c>
+      <c r="G45" s="29"/>
       <c r="H45" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="27"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="27"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="4" t="s">
         <v>199</v>
       </c>
@@ -5514,15 +5512,15 @@
       <c r="F46" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G46" s="27"/>
+      <c r="G46" s="29"/>
       <c r="H46" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="27"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="27"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="4" t="s">
         <v>209</v>
       </c>
@@ -5532,15 +5530,15 @@
       <c r="F47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="27"/>
+      <c r="G47" s="29"/>
       <c r="H47" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="27"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="27"/>
+      <c r="C48" s="29"/>
       <c r="D48" s="4" t="s">
         <v>210</v>
       </c>
@@ -5550,15 +5548,15 @@
       <c r="F48" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G48" s="27"/>
+      <c r="G48" s="29"/>
       <c r="H48" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="27"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="27"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="4" t="s">
         <v>211</v>
       </c>
@@ -5568,15 +5566,15 @@
       <c r="F49" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G49" s="27"/>
+      <c r="G49" s="29"/>
       <c r="H49" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="27"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="27"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="4" t="s">
         <v>204</v>
       </c>
@@ -5584,17 +5582,17 @@
         <v>191</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="G50" s="27"/>
+        <v>451</v>
+      </c>
+      <c r="G50" s="29"/>
       <c r="H50" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="27"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="27"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="4" t="s">
         <v>206</v>
       </c>
@@ -5602,17 +5600,17 @@
         <v>192</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="G51" s="27"/>
+        <v>452</v>
+      </c>
+      <c r="G51" s="29"/>
       <c r="H51" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="27"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="27"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="4" t="s">
         <v>212</v>
       </c>
@@ -5620,17 +5618,17 @@
         <v>190</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="G52" s="27"/>
+        <v>453</v>
+      </c>
+      <c r="G52" s="29"/>
       <c r="H52" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="27"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="27"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="4" t="s">
         <v>213</v>
       </c>
@@ -5638,17 +5636,17 @@
         <v>193</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="G53" s="27"/>
+        <v>454</v>
+      </c>
+      <c r="G53" s="29"/>
       <c r="H53" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="27"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="27"/>
+      <c r="C54" s="29"/>
       <c r="D54" s="4" t="s">
         <v>214</v>
       </c>
@@ -5656,21 +5654,21 @@
         <v>195</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="G54" s="27"/>
+        <v>455</v>
+      </c>
+      <c r="G54" s="29"/>
       <c r="H54" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="28" t="s">
         <v>173</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -5682,7 +5680,7 @@
       <c r="F55" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="G55" s="28" t="s">
         <v>181</v>
       </c>
       <c r="H55" s="8" t="s">
@@ -5690,9 +5688,9 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="27"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="27"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="4" t="s">
         <v>224</v>
       </c>
@@ -5702,19 +5700,19 @@
       <c r="F56" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G56" s="27"/>
+      <c r="G56" s="29"/>
       <c r="H56" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="28" t="s">
         <v>173</v>
       </c>
       <c r="D57" s="22" t="s">
@@ -5726,7 +5724,7 @@
       <c r="F57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="25" t="s">
+      <c r="G57" s="28" t="s">
         <v>180</v>
       </c>
       <c r="H57" s="8" t="s">
@@ -5734,9 +5732,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="27"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="27"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="4" t="s">
         <v>237</v>
       </c>
@@ -5746,15 +5744,15 @@
       <c r="F58" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G58" s="27"/>
+      <c r="G58" s="29"/>
       <c r="H58" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="27"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="27"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="4" t="s">
         <v>238</v>
       </c>
@@ -5764,15 +5762,15 @@
       <c r="F59" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G59" s="27"/>
+      <c r="G59" s="29"/>
       <c r="H59" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="27"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="27"/>
+      <c r="C60" s="29"/>
       <c r="D60" s="4" t="s">
         <v>239</v>
       </c>
@@ -5782,15 +5780,15 @@
       <c r="F60" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G60" s="27"/>
+      <c r="G60" s="29"/>
       <c r="H60" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="27"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="27"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="4" t="s">
         <v>240</v>
       </c>
@@ -5800,15 +5798,15 @@
       <c r="F61" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G61" s="27"/>
+      <c r="G61" s="29"/>
       <c r="H61" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="27"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="27"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="4" t="s">
         <v>241</v>
       </c>
@@ -5818,15 +5816,15 @@
       <c r="F62" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="27"/>
+      <c r="G62" s="29"/>
       <c r="H62" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="27"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="27"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="4" t="s">
         <v>242</v>
       </c>
@@ -5836,15 +5834,15 @@
       <c r="F63" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G63" s="27"/>
+      <c r="G63" s="29"/>
       <c r="H63" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="27"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="27"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="4" t="s">
         <v>243</v>
       </c>
@@ -5854,15 +5852,15 @@
       <c r="F64" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G64" s="27"/>
+      <c r="G64" s="29"/>
       <c r="H64" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="27"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="27"/>
+      <c r="C65" s="29"/>
       <c r="D65" s="4" t="s">
         <v>244</v>
       </c>
@@ -5872,19 +5870,19 @@
       <c r="F65" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G65" s="27"/>
+      <c r="G65" s="29"/>
       <c r="H65" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="30" t="s">
         <v>173</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -5896,7 +5894,7 @@
       <c r="F66" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G66" s="39" t="s">
+      <c r="G66" s="30" t="s">
         <v>182</v>
       </c>
       <c r="H66" s="8" t="s">
@@ -5904,9 +5902,9 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="40"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="40"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="4" t="s">
         <v>260</v>
       </c>
@@ -5916,7 +5914,7 @@
       <c r="F67" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G67" s="40"/>
+      <c r="G67" s="31"/>
       <c r="H67" s="8" t="s">
         <v>262</v>
       </c>
@@ -5928,7 +5926,7 @@
       <c r="B68" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="29" t="s">
         <v>173</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -5940,7 +5938,7 @@
       <c r="F68" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G68" s="27" t="s">
+      <c r="G68" s="29" t="s">
         <v>180</v>
       </c>
       <c r="H68" s="8" t="s">
@@ -5950,7 +5948,7 @@
     <row r="69" spans="1:8">
       <c r="A69" s="37"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="27"/>
+      <c r="C69" s="29"/>
       <c r="D69" s="4" t="s">
         <v>269</v>
       </c>
@@ -5960,7 +5958,7 @@
       <c r="F69" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="G69" s="27"/>
+      <c r="G69" s="29"/>
       <c r="H69" s="8" t="s">
         <v>268</v>
       </c>
@@ -5968,7 +5966,7 @@
     <row r="70" spans="1:8">
       <c r="A70" s="37"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="27"/>
+      <c r="C70" s="29"/>
       <c r="D70" s="4" t="s">
         <v>271</v>
       </c>
@@ -5978,7 +5976,7 @@
       <c r="F70" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G70" s="27"/>
+      <c r="G70" s="29"/>
       <c r="H70" s="8" t="s">
         <v>270</v>
       </c>
@@ -5986,7 +5984,7 @@
     <row r="71" spans="1:8">
       <c r="A71" s="37"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="27"/>
+      <c r="C71" s="29"/>
       <c r="D71" s="22" t="s">
         <v>441</v>
       </c>
@@ -5996,7 +5994,7 @@
       <c r="F71" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G71" s="27"/>
+      <c r="G71" s="29"/>
       <c r="H71" s="8" t="s">
         <v>265</v>
       </c>
@@ -6004,7 +6002,7 @@
     <row r="72" spans="1:8">
       <c r="A72" s="37"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="27"/>
+      <c r="C72" s="29"/>
       <c r="D72" s="4" t="s">
         <v>273</v>
       </c>
@@ -6014,7 +6012,7 @@
       <c r="F72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="27"/>
+      <c r="G72" s="29"/>
       <c r="H72" s="8" t="s">
         <v>272</v>
       </c>
@@ -6022,7 +6020,7 @@
     <row r="73" spans="1:8">
       <c r="A73" s="37"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="27"/>
+      <c r="C73" s="29"/>
       <c r="D73" s="4" t="s">
         <v>274</v>
       </c>
@@ -6032,7 +6030,7 @@
       <c r="F73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="27"/>
+      <c r="G73" s="29"/>
       <c r="H73" s="8" t="s">
         <v>277</v>
       </c>
@@ -6040,7 +6038,7 @@
     <row r="74" spans="1:8">
       <c r="A74" s="37"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="27"/>
+      <c r="C74" s="29"/>
       <c r="D74" s="4" t="s">
         <v>276</v>
       </c>
@@ -6050,7 +6048,7 @@
       <c r="F74" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G74" s="27"/>
+      <c r="G74" s="29"/>
       <c r="H74" s="8" t="s">
         <v>275</v>
       </c>
@@ -6058,7 +6056,7 @@
     <row r="75" spans="1:8">
       <c r="A75" s="37"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="27"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="4" t="s">
         <v>279</v>
       </c>
@@ -6068,7 +6066,7 @@
       <c r="F75" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G75" s="27"/>
+      <c r="G75" s="29"/>
       <c r="H75" s="8" t="s">
         <v>278</v>
       </c>
@@ -6076,7 +6074,7 @@
     <row r="76" spans="1:8">
       <c r="A76" s="37"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="27"/>
+      <c r="C76" s="29"/>
       <c r="D76" s="4" t="s">
         <v>281</v>
       </c>
@@ -6086,7 +6084,7 @@
       <c r="F76" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G76" s="27"/>
+      <c r="G76" s="29"/>
       <c r="H76" s="8" t="s">
         <v>280</v>
       </c>
@@ -6094,7 +6092,7 @@
     <row r="77" spans="1:8">
       <c r="A77" s="38"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="30"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="4" t="s">
         <v>283</v>
       </c>
@@ -6104,7 +6102,7 @@
       <c r="F77" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G77" s="30"/>
+      <c r="G77" s="26"/>
       <c r="H77" s="8" t="s">
         <v>282</v>
       </c>
@@ -6188,13 +6186,13 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="28" t="s">
         <v>175</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -6206,7 +6204,7 @@
       <c r="F81" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G81" s="25" t="s">
+      <c r="G81" s="28" t="s">
         <v>180</v>
       </c>
       <c r="H81" s="8" t="s">
@@ -6214,9 +6212,9 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="32"/>
+      <c r="A82" s="40"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="26"/>
+      <c r="C82" s="32"/>
       <c r="D82" s="4" t="s">
         <v>308</v>
       </c>
@@ -6226,19 +6224,19 @@
       <c r="F82" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G82" s="26"/>
+      <c r="G82" s="32"/>
       <c r="H82" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="28" t="s">
         <v>173</v>
       </c>
       <c r="D83" s="4" t="s">
@@ -6250,7 +6248,7 @@
       <c r="F83" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="25" t="s">
+      <c r="G83" s="28" t="s">
         <v>183</v>
       </c>
       <c r="H83" s="8" t="s">
@@ -6258,9 +6256,9 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="27"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="27"/>
+      <c r="C84" s="29"/>
       <c r="D84" s="4" t="s">
         <v>325</v>
       </c>
@@ -6268,17 +6266,17 @@
         <v>327</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="G84" s="27"/>
+        <v>463</v>
+      </c>
+      <c r="G84" s="29"/>
       <c r="H84" s="10" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="27"/>
+      <c r="A85" s="29"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="27"/>
+      <c r="C85" s="29"/>
       <c r="D85" s="22" t="s">
         <v>441</v>
       </c>
@@ -6288,17 +6286,17 @@
       <c r="F85" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G85" s="27"/>
+      <c r="G85" s="29"/>
       <c r="H85" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="27"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="27"/>
+      <c r="C86" s="29"/>
       <c r="D86" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>328</v>
@@ -6306,15 +6304,15 @@
       <c r="F86" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G86" s="27"/>
+      <c r="G86" s="29"/>
       <c r="H86" s="10" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="27"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="27"/>
+      <c r="C87" s="29"/>
       <c r="D87" s="4" t="s">
         <v>313</v>
       </c>
@@ -6324,15 +6322,15 @@
       <c r="F87" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G87" s="27"/>
+      <c r="G87" s="29"/>
       <c r="H87" s="10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="27"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="27"/>
+      <c r="C88" s="29"/>
       <c r="D88" s="4" t="s">
         <v>314</v>
       </c>
@@ -6342,15 +6340,15 @@
       <c r="F88" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G88" s="27"/>
+      <c r="G88" s="29"/>
       <c r="H88" s="10" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="27"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="27"/>
+      <c r="C89" s="29"/>
       <c r="D89" s="4" t="s">
         <v>315</v>
       </c>
@@ -6360,15 +6358,15 @@
       <c r="F89" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G89" s="27"/>
+      <c r="G89" s="29"/>
       <c r="H89" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="27"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="27"/>
+      <c r="C90" s="29"/>
       <c r="D90" s="4" t="s">
         <v>316</v>
       </c>
@@ -6376,17 +6374,17 @@
         <v>332</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="G90" s="27"/>
+        <v>464</v>
+      </c>
+      <c r="G90" s="29"/>
       <c r="H90" s="10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="27"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="27"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="4" t="s">
         <v>317</v>
       </c>
@@ -6394,17 +6392,17 @@
         <v>333</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="G91" s="27"/>
+        <v>465</v>
+      </c>
+      <c r="G91" s="29"/>
       <c r="H91" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="27"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="27"/>
+      <c r="C92" s="29"/>
       <c r="D92" s="4" t="s">
         <v>318</v>
       </c>
@@ -6414,59 +6412,59 @@
       <c r="F92" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G92" s="27"/>
+      <c r="G92" s="29"/>
       <c r="H92" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="27" t="s">
         <v>176</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="G93" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="G93" s="27" t="s">
         <v>181</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="29"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="23"/>
-      <c r="C94" s="29"/>
+      <c r="C94" s="25"/>
       <c r="D94" s="23" t="s">
         <v>441</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F94" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="G94" s="29"/>
+      <c r="G94" s="25"/>
       <c r="H94" s="20" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="29"/>
+      <c r="A95" s="25"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="29"/>
+      <c r="C95" s="25"/>
       <c r="D95" s="22" t="s">
         <v>441</v>
       </c>
@@ -6476,15 +6474,15 @@
       <c r="F95" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G95" s="29"/>
+      <c r="G95" s="25"/>
       <c r="H95" s="20" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="29"/>
+      <c r="A96" s="25"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="29"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="4" t="s">
         <v>341</v>
       </c>
@@ -6494,15 +6492,15 @@
       <c r="F96" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G96" s="29"/>
+      <c r="G96" s="25"/>
       <c r="H96" s="20" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="29"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="29"/>
+      <c r="C97" s="25"/>
       <c r="D97" s="22" t="s">
         <v>441</v>
       </c>
@@ -6512,15 +6510,15 @@
       <c r="F97" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G97" s="29"/>
+      <c r="G97" s="25"/>
       <c r="H97" s="20" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="29"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="29"/>
+      <c r="C98" s="25"/>
       <c r="D98" s="4" t="s">
         <v>343</v>
       </c>
@@ -6530,15 +6528,15 @@
       <c r="F98" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G98" s="29"/>
+      <c r="G98" s="25"/>
       <c r="H98" s="20" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="29"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="29"/>
+      <c r="C99" s="25"/>
       <c r="D99" s="22" t="s">
         <v>441</v>
       </c>
@@ -6548,15 +6546,15 @@
       <c r="F99" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G99" s="29"/>
+      <c r="G99" s="25"/>
       <c r="H99" s="20" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="29"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="29"/>
+      <c r="C100" s="25"/>
       <c r="D100" s="4" t="s">
         <v>350</v>
       </c>
@@ -6566,15 +6564,15 @@
       <c r="F100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="29"/>
+      <c r="G100" s="25"/>
       <c r="H100" s="20" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="27">
-      <c r="A101" s="29"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="29"/>
+      <c r="C101" s="25"/>
       <c r="D101" s="4" t="s">
         <v>351</v>
       </c>
@@ -6584,15 +6582,15 @@
       <c r="F101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G101" s="29"/>
+      <c r="G101" s="25"/>
       <c r="H101" s="20" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="29"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="29"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="4" t="s">
         <v>345</v>
       </c>
@@ -6602,15 +6600,15 @@
       <c r="F102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G102" s="29"/>
+      <c r="G102" s="25"/>
       <c r="H102" s="20" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="29"/>
+      <c r="A103" s="25"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="29"/>
+      <c r="C103" s="25"/>
       <c r="D103" s="4" t="s">
         <v>346</v>
       </c>
@@ -6620,15 +6618,15 @@
       <c r="F103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G103" s="29"/>
+      <c r="G103" s="25"/>
       <c r="H103" s="20" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="29"/>
+      <c r="A104" s="25"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="29"/>
+      <c r="C104" s="25"/>
       <c r="D104" s="4" t="s">
         <v>348</v>
       </c>
@@ -6638,19 +6636,19 @@
       <c r="F104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G104" s="29"/>
+      <c r="G104" s="25"/>
       <c r="H104" s="20" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="27" t="s">
         <v>178</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="27" t="s">
         <v>173</v>
       </c>
       <c r="D105" s="22" t="s">
@@ -6662,7 +6660,7 @@
       <c r="F105" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G105" s="28" t="s">
+      <c r="G105" s="27" t="s">
         <v>180</v>
       </c>
       <c r="H105" s="20" t="s">
@@ -6670,9 +6668,9 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="29"/>
+      <c r="A106" s="25"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="29"/>
+      <c r="C106" s="25"/>
       <c r="D106" s="4" t="s">
         <v>381</v>
       </c>
@@ -6682,15 +6680,15 @@
       <c r="F106" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G106" s="29"/>
+      <c r="G106" s="25"/>
       <c r="H106" s="10" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="29"/>
+      <c r="A107" s="25"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="29"/>
+      <c r="C107" s="25"/>
       <c r="D107" s="4" t="s">
         <v>383</v>
       </c>
@@ -6700,15 +6698,15 @@
       <c r="F107" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G107" s="29"/>
+      <c r="G107" s="25"/>
       <c r="H107" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="29"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="29"/>
+      <c r="C108" s="25"/>
       <c r="D108" s="4" t="s">
         <v>386</v>
       </c>
@@ -6718,15 +6716,15 @@
       <c r="F108" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G108" s="29"/>
+      <c r="G108" s="25"/>
       <c r="H108" s="10" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="29"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="29"/>
+      <c r="C109" s="25"/>
       <c r="D109" s="4" t="s">
         <v>387</v>
       </c>
@@ -6736,15 +6734,15 @@
       <c r="F109" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G109" s="29"/>
+      <c r="G109" s="25"/>
       <c r="H109" s="10" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="29"/>
+      <c r="A110" s="25"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="29"/>
+      <c r="C110" s="25"/>
       <c r="D110" s="4" t="s">
         <v>388</v>
       </c>
@@ -6754,15 +6752,15 @@
       <c r="F110" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G110" s="29"/>
+      <c r="G110" s="25"/>
       <c r="H110" s="10" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="29"/>
+      <c r="A111" s="25"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="29"/>
+      <c r="C111" s="25"/>
       <c r="D111" s="4" t="s">
         <v>389</v>
       </c>
@@ -6772,15 +6770,15 @@
       <c r="F111" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G111" s="29"/>
+      <c r="G111" s="25"/>
       <c r="H111" s="10" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="29"/>
+      <c r="A112" s="25"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="29"/>
+      <c r="C112" s="25"/>
       <c r="D112" s="4" t="s">
         <v>390</v>
       </c>
@@ -6790,15 +6788,15 @@
       <c r="F112" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G112" s="29"/>
+      <c r="G112" s="25"/>
       <c r="H112" s="10" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="29"/>
+      <c r="A113" s="25"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="29"/>
+      <c r="C113" s="25"/>
       <c r="D113" s="4" t="s">
         <v>391</v>
       </c>
@@ -6808,15 +6806,15 @@
       <c r="F113" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G113" s="29"/>
+      <c r="G113" s="25"/>
       <c r="H113" s="10" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="29"/>
+      <c r="A114" s="25"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="29"/>
+      <c r="C114" s="25"/>
       <c r="D114" s="4" t="s">
         <v>392</v>
       </c>
@@ -6826,15 +6824,15 @@
       <c r="F114" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G114" s="29"/>
+      <c r="G114" s="25"/>
       <c r="H114" s="10" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="29"/>
+      <c r="A115" s="25"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="29"/>
+      <c r="C115" s="25"/>
       <c r="D115" s="4" t="s">
         <v>393</v>
       </c>
@@ -6844,15 +6842,15 @@
       <c r="F115" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="29"/>
+      <c r="G115" s="25"/>
       <c r="H115" s="10" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="29"/>
+      <c r="A116" s="25"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="29"/>
+      <c r="C116" s="25"/>
       <c r="D116" s="4" t="s">
         <v>394</v>
       </c>
@@ -6862,15 +6860,15 @@
       <c r="F116" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G116" s="29"/>
+      <c r="G116" s="25"/>
       <c r="H116" s="10" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="29"/>
+      <c r="A117" s="25"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="29"/>
+      <c r="C117" s="25"/>
       <c r="D117" s="4" t="s">
         <v>395</v>
       </c>
@@ -6880,15 +6878,15 @@
       <c r="F117" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G117" s="29"/>
+      <c r="G117" s="25"/>
       <c r="H117" s="10" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="29"/>
+      <c r="A118" s="25"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="29"/>
+      <c r="C118" s="25"/>
       <c r="D118" s="4" t="s">
         <v>396</v>
       </c>
@@ -6898,15 +6896,15 @@
       <c r="F118" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G118" s="29"/>
+      <c r="G118" s="25"/>
       <c r="H118" s="10" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="29"/>
+      <c r="A119" s="25"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="29"/>
+      <c r="C119" s="25"/>
       <c r="D119" s="4" t="s">
         <v>397</v>
       </c>
@@ -6916,15 +6914,15 @@
       <c r="F119" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G119" s="29"/>
+      <c r="G119" s="25"/>
       <c r="H119" s="10" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="29"/>
+      <c r="A120" s="25"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="29"/>
+      <c r="C120" s="25"/>
       <c r="D120" s="4" t="s">
         <v>398</v>
       </c>
@@ -6934,15 +6932,15 @@
       <c r="F120" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G120" s="29"/>
+      <c r="G120" s="25"/>
       <c r="H120" s="10" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="30"/>
+      <c r="A121" s="26"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="30"/>
+      <c r="C121" s="26"/>
       <c r="D121" s="4" t="s">
         <v>399</v>
       </c>
@@ -6952,19 +6950,19 @@
       <c r="F121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G121" s="30"/>
+      <c r="G121" s="26"/>
       <c r="H121" s="10" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="54">
-      <c r="A122" s="29" t="s">
+      <c r="A122" s="25" t="s">
         <v>179</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C122" s="29" t="s">
+      <c r="C122" s="25" t="s">
         <v>177</v>
       </c>
       <c r="D122" s="4" t="s">
@@ -6976,7 +6974,7 @@
       <c r="F122" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G122" s="29" t="s">
+      <c r="G122" s="25" t="s">
         <v>181</v>
       </c>
       <c r="H122" s="9" t="s">
@@ -6984,9 +6982,9 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="40.5">
-      <c r="A123" s="29"/>
+      <c r="A123" s="25"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="29"/>
+      <c r="C123" s="25"/>
       <c r="D123" s="4" t="s">
         <v>367</v>
       </c>
@@ -6996,15 +6994,15 @@
       <c r="F123" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G123" s="29"/>
+      <c r="G123" s="25"/>
       <c r="H123" s="9" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="27">
-      <c r="A124" s="29"/>
+      <c r="A124" s="25"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="29"/>
+      <c r="C124" s="25"/>
       <c r="D124" s="4" t="s">
         <v>369</v>
       </c>
@@ -7014,15 +7012,15 @@
       <c r="F124" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G124" s="29"/>
+      <c r="G124" s="25"/>
       <c r="H124" s="9" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="30"/>
+      <c r="A125" s="26"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="30"/>
+      <c r="C125" s="26"/>
       <c r="D125" s="4" t="s">
         <v>439</v>
       </c>
@@ -7032,32 +7030,29 @@
       <c r="F125" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G125" s="30"/>
+      <c r="G125" s="26"/>
       <c r="H125" s="8" t="s">
         <v>438</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="G93:G104"/>
-    <mergeCell ref="G105:G121"/>
-    <mergeCell ref="C93:C104"/>
-    <mergeCell ref="G4:G15"/>
-    <mergeCell ref="G17:G22"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G83:G92"/>
-    <mergeCell ref="G57:G65"/>
-    <mergeCell ref="G68:G77"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G44:G54"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G23:G30"/>
-    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A105:A121"/>
+    <mergeCell ref="C105:C121"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="A93:A104"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="C44:C54"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="A81:A82"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="C4:C15"/>
     <mergeCell ref="A68:A77"/>
@@ -7074,22 +7069,25 @@
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="C23:C30"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A105:A121"/>
-    <mergeCell ref="C105:C121"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="A93:A104"/>
-    <mergeCell ref="A83:A92"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="C44:C54"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="G4:G15"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="G57:G65"/>
+    <mergeCell ref="G68:G77"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G44:G54"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G23:G30"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="G93:G104"/>
+    <mergeCell ref="G105:G121"/>
+    <mergeCell ref="C93:C104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
